--- a/correlation/data/Dashboard模板.xlsx
+++ b/correlation/data/Dashboard模板.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -7876,11 +7876,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="523651376"/>
-        <c:axId val="523650592"/>
+        <c:axId val="854197416"/>
+        <c:axId val="854197808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="523651376"/>
+        <c:axId val="854197416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7923,14 +7923,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="523650592"/>
+        <c:crossAx val="854197808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="523650592"/>
+        <c:axId val="854197808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.60000000000000009"/>
@@ -7968,7 +7968,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="523651376"/>
+        <c:crossAx val="854197416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20201,11 +20201,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="523652160"/>
-        <c:axId val="518837808"/>
+        <c:axId val="854198592"/>
+        <c:axId val="854198984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="523652160"/>
+        <c:axId val="854198592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20248,14 +20248,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518837808"/>
+        <c:crossAx val="854198984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="518837808"/>
+        <c:axId val="854198984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20292,7 +20292,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="523652160"/>
+        <c:crossAx val="854198592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20795,11 +20795,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="531570640"/>
-        <c:axId val="531571032"/>
+        <c:axId val="857274568"/>
+        <c:axId val="857274960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="531570640"/>
+        <c:axId val="857274568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20842,14 +20842,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="531571032"/>
+        <c:crossAx val="857274960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="531571032"/>
+        <c:axId val="857274960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20886,7 +20886,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="531570640"/>
+        <c:crossAx val="857274568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23029,7 +23029,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -23089,25 +23089,25 @@
         <v>18</v>
       </c>
       <c r="B3" s="10">
-        <v>-1.128220921898403</v>
+        <v>-1.230720887883993</v>
       </c>
       <c r="C3" s="10">
-        <v>1.937303296807066</v>
+        <v>1.93072793134929</v>
       </c>
       <c r="D3" s="10">
-        <v>-1.734741677382702</v>
+        <v>-2.724715258176337</v>
       </c>
       <c r="E3" s="10">
-        <v>-3.14093520602799</v>
+        <v>-3.106898883271652</v>
       </c>
       <c r="F3" s="10">
-        <v>-2.0809911320832541</v>
+        <v>-1.35447620710308</v>
       </c>
       <c r="G3" s="10">
-        <v>-3.4486859707975852</v>
+        <v>-12.227030808592311</v>
       </c>
       <c r="H3" s="10">
-        <v>-2.5430204206658611</v>
+        <v>-1.993325999359554</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -23115,25 +23115,25 @@
         <v>7</v>
       </c>
       <c r="B4" s="5">
-        <v>0.42163681983947748</v>
+        <v>0.43498796224594122</v>
       </c>
       <c r="C4" s="5">
-        <v>0.84642785787582397</v>
+        <v>0.83476924896240234</v>
       </c>
       <c r="D4" s="5">
-        <v>0.42349681258201599</v>
+        <v>0.51049727201461792</v>
       </c>
       <c r="E4" s="5">
-        <v>6.0772407799959183E-2</v>
+        <v>7.3690816760063171E-2</v>
       </c>
       <c r="F4" s="5">
-        <v>0.13923189043998721</v>
+        <v>0.24947033822536471</v>
       </c>
       <c r="G4" s="5">
-        <v>0.2003462165594101</v>
+        <v>1.5804056078195568E-2</v>
       </c>
       <c r="H4" s="5">
-        <v>0.20781031250953669</v>
+        <v>0.33830040693283081</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -23141,25 +23141,25 @@
         <v>8</v>
       </c>
       <c r="B5" s="5">
-        <v>0.42789801955223078</v>
+        <v>0.43946108222007751</v>
       </c>
       <c r="C5" s="5">
-        <v>0.80195784568786621</v>
+        <v>0.77891761064529419</v>
       </c>
       <c r="D5" s="5">
-        <v>0.50847667455673218</v>
+        <v>0.63133466243743896</v>
       </c>
       <c r="E5" s="5">
-        <v>8.4284700453281403E-2</v>
+        <v>0.1021043136715889</v>
       </c>
       <c r="F5" s="5">
-        <v>0.17172762751579279</v>
+        <v>0.29793831706047058</v>
       </c>
       <c r="G5" s="5">
-        <v>0.30754768848419189</v>
+        <v>0.12764726579189301</v>
       </c>
       <c r="H5" s="5">
-        <v>0.2629084587097168</v>
+        <v>0.38035425543785101</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
@@ -23167,25 +23167,25 @@
         <v>19</v>
       </c>
       <c r="B6" s="5">
-        <v>0.37538996338844299</v>
+        <v>0.3749578595161438</v>
       </c>
       <c r="C6" s="5">
-        <v>0.78933387994766235</v>
+        <v>0.75998085737228394</v>
       </c>
       <c r="D6" s="5">
-        <v>0.40503203868865972</v>
+        <v>0.4448113739490509</v>
       </c>
       <c r="E6" s="5">
-        <v>6.9199614226818085E-2</v>
+        <v>7.9730339348316193E-2</v>
       </c>
       <c r="F6" s="5">
-        <v>0.18188683688640589</v>
+        <v>0.28596168756484991</v>
       </c>
       <c r="G6" s="5">
-        <v>0.28891000151634222</v>
+        <v>9.5331393182277679E-2</v>
       </c>
       <c r="H6" s="5">
-        <v>0.2354905903339386</v>
+        <v>0.35220277309417719</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -23193,25 +23193,25 @@
         <v>9</v>
       </c>
       <c r="B7" s="5">
-        <v>0.55736267566680908</v>
+        <v>0.55548650026321411</v>
       </c>
       <c r="C7" s="5">
-        <v>0.18816807866096499</v>
+        <v>0.1774798780679703</v>
       </c>
       <c r="D7" s="5">
-        <v>0.66182476282119751</v>
+        <v>0.72844046354293823</v>
       </c>
       <c r="E7" s="5">
-        <v>0.86392277479171753</v>
+        <v>0.87643194198608398</v>
       </c>
       <c r="F7" s="5">
-        <v>0.84343290328979492</v>
+        <v>0.740733802318573</v>
       </c>
       <c r="G7" s="5">
-        <v>0.94525617361068726</v>
+        <v>0.99995744228363037</v>
       </c>
       <c r="H7" s="5">
-        <v>0.87939327955245972</v>
+        <v>0.84607809782028198</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -23219,25 +23219,25 @@
         <v>10</v>
       </c>
       <c r="B8" s="5">
-        <v>0.5494842529296875</v>
+        <v>0.53922879695892334</v>
       </c>
       <c r="C8" s="5">
-        <v>0.17516954243183139</v>
+        <v>0.17861528694629669</v>
       </c>
       <c r="D8" s="5">
-        <v>0.67445814609527588</v>
+        <v>0.72448968887329102</v>
       </c>
       <c r="E8" s="5">
-        <v>0.89597928524017334</v>
+        <v>0.88856571912765503</v>
       </c>
       <c r="F8" s="5">
-        <v>0.85305798053741455</v>
+        <v>0.72676265239715576</v>
       </c>
       <c r="G8" s="5">
-        <v>0.94760286808013916</v>
+        <v>0.99996066093444824</v>
       </c>
       <c r="H8" s="5">
-        <v>0.89012724161148071</v>
+        <v>0.83878940343856812</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -23245,25 +23245,25 @@
         <v>11</v>
       </c>
       <c r="B9" s="5">
-        <v>0.54076206684112549</v>
+        <v>0.53805011510848999</v>
       </c>
       <c r="C9" s="5">
-        <v>0.1562762260437012</v>
+        <v>0.14023911952972409</v>
       </c>
       <c r="D9" s="5">
-        <v>0.69147109985351563</v>
+        <v>0.77494001388549805</v>
       </c>
       <c r="E9" s="5">
-        <v>0.89911270141601563</v>
+        <v>0.91877645254135132</v>
       </c>
       <c r="F9" s="5">
-        <v>0.86716282367706299</v>
+        <v>0.75279778242111206</v>
       </c>
       <c r="G9" s="5">
-        <v>0.93904495239257813</v>
+        <v>0.99993729591369629</v>
       </c>
       <c r="H9" s="5">
-        <v>0.85082823038101196</v>
+        <v>0.81820183992385864</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
@@ -23311,28 +23311,28 @@
         <v>18</v>
       </c>
       <c r="B13" s="10">
-        <v>-1.466843587105821</v>
+        <v>-1.426070381925191</v>
       </c>
       <c r="C13" s="10">
-        <v>1.8294551665496031</v>
+        <v>2.1464918369406449</v>
       </c>
       <c r="D13" s="10">
-        <v>-1.3625374385805651</v>
+        <v>-1.151485282535611</v>
       </c>
       <c r="E13" s="10">
-        <v>-5.7547734837085116</v>
+        <v>-3.862552978651316</v>
       </c>
       <c r="F13" s="10">
-        <v>-1.32978660941436</v>
+        <v>-1.2602571191379559</v>
       </c>
       <c r="G13" s="10">
-        <v>-1.3276479565980861</v>
+        <v>-1.5419766506835071</v>
       </c>
       <c r="H13" s="10">
-        <v>2.585852488986264</v>
+        <v>2.207178392794245</v>
       </c>
       <c r="I13" s="10">
-        <v>1.9958204718807071</v>
+        <v>2.385690306272521</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -23340,28 +23340,28 @@
         <v>7</v>
       </c>
       <c r="B14" s="5">
-        <v>0.7297208309173584</v>
+        <v>0.72515857219696045</v>
       </c>
       <c r="C14" s="5">
-        <v>0.7651326060295105</v>
+        <v>0.81120628118515015</v>
       </c>
       <c r="D14" s="5">
-        <v>0.52678602933883667</v>
+        <v>0.55450505018234253</v>
       </c>
       <c r="E14" s="5">
-        <v>0.70414268970489502</v>
+        <v>0.69344532489776611</v>
       </c>
       <c r="F14" s="5">
-        <v>0.6569485068321228</v>
+        <v>0.65837794542312622</v>
       </c>
       <c r="G14" s="5">
-        <v>0.63837385177612305</v>
+        <v>0.69703251123428345</v>
       </c>
       <c r="H14" s="5">
-        <v>0.92414587736129761</v>
+        <v>0.89479935169219971</v>
       </c>
       <c r="I14" s="5">
-        <v>0.82601469755172729</v>
+        <v>0.87632280588150024</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
@@ -23369,28 +23369,28 @@
         <v>8</v>
       </c>
       <c r="B15" s="5">
-        <v>0.73864150047302246</v>
+        <v>0.73424756526947021</v>
       </c>
       <c r="C15" s="5">
-        <v>0.7814367413520813</v>
+        <v>0.82528942823410034</v>
       </c>
       <c r="D15" s="5">
-        <v>0.57146000862121582</v>
+        <v>0.58415687084197998</v>
       </c>
       <c r="E15" s="5">
-        <v>0.85855221748352051</v>
+        <v>0.79826456308364868</v>
       </c>
       <c r="F15" s="5">
-        <v>0.6786956787109375</v>
+        <v>0.67708826065063477</v>
       </c>
       <c r="G15" s="5">
-        <v>0.65556710958480835</v>
+        <v>0.70609349012374878</v>
       </c>
       <c r="H15" s="5">
-        <v>0.92771357297897339</v>
+        <v>0.8987610936164856</v>
       </c>
       <c r="I15" s="5">
-        <v>0.83286035060882568</v>
+        <v>0.87753051519393921</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -23398,28 +23398,28 @@
         <v>19</v>
       </c>
       <c r="B16" s="5">
-        <v>0.7795528769493103</v>
+        <v>0.77463221549987793</v>
       </c>
       <c r="C16" s="5">
-        <v>0.77316039800643921</v>
+        <v>0.81602561473846436</v>
       </c>
       <c r="D16" s="5">
-        <v>0.60788369178771973</v>
+        <v>0.60604548454284668</v>
       </c>
       <c r="E16" s="5">
-        <v>0.7940327525138855</v>
+        <v>0.74309629201889038</v>
       </c>
       <c r="F16" s="5">
-        <v>0.74290049076080322</v>
+        <v>0.73464846611022949</v>
       </c>
       <c r="G16" s="5">
-        <v>0.68160486221313477</v>
+        <v>0.71534210443496704</v>
       </c>
       <c r="H16" s="5">
-        <v>0.90282750129699707</v>
+        <v>0.87151587009429932</v>
       </c>
       <c r="I16" s="5">
-        <v>0.81410801410675049</v>
+        <v>0.85385334491729736</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -23427,28 +23427,28 @@
         <v>9</v>
       </c>
       <c r="B17" s="5">
-        <v>0.6269000768661499</v>
+        <v>0.63024359941482544</v>
       </c>
       <c r="C17" s="5">
-        <v>0.44278201460838318</v>
+        <v>0.45395770668983459</v>
       </c>
       <c r="D17" s="5">
-        <v>0.77286958694458008</v>
+        <v>0.73694181442260742</v>
       </c>
       <c r="E17" s="5">
-        <v>0.91041839122772217</v>
+        <v>0.83298677206039429</v>
       </c>
       <c r="F17" s="5">
-        <v>0.64507818222045898</v>
+        <v>0.64595621824264526</v>
       </c>
       <c r="G17" s="5">
-        <v>0.73215568065643311</v>
+        <v>0.7567756175994873</v>
       </c>
       <c r="H17" s="5">
-        <v>0.61632847785949707</v>
+        <v>0.62864845991134644</v>
       </c>
       <c r="I17" s="5">
-        <v>0.61898207664489746</v>
+        <v>0.67561757564544678</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -23456,28 +23456,28 @@
         <v>10</v>
       </c>
       <c r="B18" s="5">
-        <v>0.6001589298248291</v>
+        <v>0.61260682344436646</v>
       </c>
       <c r="C18" s="5">
-        <v>0.39862245321273798</v>
+        <v>0.418031245470047</v>
       </c>
       <c r="D18" s="5">
-        <v>0.79305064678192139</v>
+        <v>0.75643134117126465</v>
       </c>
       <c r="E18" s="5">
-        <v>0.89656496047973633</v>
+        <v>0.81678575277328491</v>
       </c>
       <c r="F18" s="5">
-        <v>0.64780181646347046</v>
+        <v>0.64711487293243408</v>
       </c>
       <c r="G18" s="5">
-        <v>0.73727387189865112</v>
+        <v>0.76483362913131714</v>
       </c>
       <c r="H18" s="5">
-        <v>0.56790924072265625</v>
+        <v>0.59983497858047485</v>
       </c>
       <c r="I18" s="5">
-        <v>0.59697502851486206</v>
+        <v>0.65911448001861572</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -23485,28 +23485,28 @@
         <v>11</v>
       </c>
       <c r="B19" s="5">
-        <v>0.5944983959197998</v>
+        <v>0.60401684045791626</v>
       </c>
       <c r="C19" s="5">
-        <v>0.45834660530090332</v>
+        <v>0.47464123368263239</v>
       </c>
       <c r="D19" s="5">
-        <v>0.78441441059112549</v>
+        <v>0.74693691730499268</v>
       </c>
       <c r="E19" s="5">
-        <v>0.96356874704360962</v>
+        <v>0.90230387449264526</v>
       </c>
       <c r="F19" s="5">
-        <v>0.65063971281051636</v>
+        <v>0.64728718996047974</v>
       </c>
       <c r="G19" s="5">
-        <v>0.71967118978500366</v>
+        <v>0.74106693267822266</v>
       </c>
       <c r="H19" s="5">
-        <v>0.59433871507644653</v>
+        <v>0.60809075832366943</v>
       </c>
       <c r="I19" s="5">
-        <v>0.59314262866973877</v>
+        <v>0.63713216781616211</v>
       </c>
     </row>
   </sheetData>
@@ -23516,7 +23516,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B14:I19">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -23528,7 +23528,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:H3">
-    <cfRule type="iconSet" priority="5">
+    <cfRule type="iconSet" priority="6">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0"/>
@@ -23537,7 +23537,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:H9">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -23549,7 +23549,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:H9">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -23561,7 +23561,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:I18 B4:C8">
-    <cfRule type="colorScale" priority="17">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -23573,7 +23573,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:I18 B4:C8">
-    <cfRule type="colorScale" priority="19">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -23585,7 +23585,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:I13 B3:C3">
-    <cfRule type="iconSet" priority="21">
+    <cfRule type="iconSet" priority="22">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0"/>
@@ -23594,7 +23594,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:C9">
-    <cfRule type="colorScale" priority="23">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -23606,13 +23606,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:C9">
-    <cfRule type="colorScale" priority="24">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:H9">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>

--- a/correlation/data/Dashboard模板.xlsx
+++ b/correlation/data/Dashboard模板.xlsx
@@ -7876,11 +7876,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="854197416"/>
-        <c:axId val="854197808"/>
+        <c:axId val="821590576"/>
+        <c:axId val="821592536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="854197416"/>
+        <c:axId val="821590576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7923,14 +7923,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="854197808"/>
+        <c:crossAx val="821592536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="854197808"/>
+        <c:axId val="821592536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.60000000000000009"/>
@@ -7968,7 +7968,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="854197416"/>
+        <c:crossAx val="821590576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20201,11 +20201,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="854198592"/>
-        <c:axId val="854198984"/>
+        <c:axId val="822715864"/>
+        <c:axId val="822716256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="854198592"/>
+        <c:axId val="822715864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20248,14 +20248,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="854198984"/>
+        <c:crossAx val="822716256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="854198984"/>
+        <c:axId val="822716256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20292,7 +20292,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="854198592"/>
+        <c:crossAx val="822715864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20795,11 +20795,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="857274568"/>
-        <c:axId val="857274960"/>
+        <c:axId val="822717040"/>
+        <c:axId val="822717432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="857274568"/>
+        <c:axId val="822717040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20842,14 +20842,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="857274960"/>
+        <c:crossAx val="822717432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="857274960"/>
+        <c:axId val="822717432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20886,7 +20886,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="857274568"/>
+        <c:crossAx val="822717040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23029,7 +23029,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A11" sqref="A11:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -23311,28 +23311,28 @@
         <v>18</v>
       </c>
       <c r="B13" s="10">
-        <v>-1.426070381925191</v>
+        <v>-1.437596509341889</v>
       </c>
       <c r="C13" s="10">
-        <v>2.1464918369406449</v>
+        <v>2.5061578365181378</v>
       </c>
       <c r="D13" s="10">
-        <v>-1.151485282535611</v>
+        <v>1.358754435452314</v>
       </c>
       <c r="E13" s="10">
-        <v>-3.862552978651316</v>
+        <v>-3.0601000467610651</v>
       </c>
       <c r="F13" s="10">
-        <v>-1.2602571191379559</v>
+        <v>-1.092836440065631</v>
       </c>
       <c r="G13" s="10">
-        <v>-1.5419766506835071</v>
+        <v>-1.300267549428455</v>
       </c>
       <c r="H13" s="10">
-        <v>2.207178392794245</v>
+        <v>2.467877250743614</v>
       </c>
       <c r="I13" s="10">
-        <v>2.385690306272521</v>
+        <v>1.680280646081046</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -23340,28 +23340,28 @@
         <v>7</v>
       </c>
       <c r="B14" s="5">
-        <v>0.72515857219696045</v>
+        <v>0.72427594661712646</v>
       </c>
       <c r="C14" s="5">
-        <v>0.81120628118515015</v>
+        <v>0.86156105995178223</v>
       </c>
       <c r="D14" s="5">
-        <v>0.55450505018234253</v>
+        <v>0.43704807758331299</v>
       </c>
       <c r="E14" s="5">
-        <v>0.69344532489776611</v>
+        <v>0.69786602258682251</v>
       </c>
       <c r="F14" s="5">
-        <v>0.65837794542312622</v>
+        <v>0.65320760011672974</v>
       </c>
       <c r="G14" s="5">
-        <v>0.69703251123428345</v>
+        <v>0.68529999256134033</v>
       </c>
       <c r="H14" s="5">
-        <v>0.89479935169219971</v>
+        <v>0.91751706600189209</v>
       </c>
       <c r="I14" s="5">
-        <v>0.87632280588150024</v>
+        <v>0.79887926578521729</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
@@ -23369,28 +23369,28 @@
         <v>8</v>
       </c>
       <c r="B15" s="5">
-        <v>0.73424756526947021</v>
+        <v>0.73221659660339355</v>
       </c>
       <c r="C15" s="5">
-        <v>0.82528942823410034</v>
+        <v>0.87175816297531128</v>
       </c>
       <c r="D15" s="5">
-        <v>0.58415687084197998</v>
+        <v>0.40729007124900818</v>
       </c>
       <c r="E15" s="5">
-        <v>0.79826456308364868</v>
+        <v>0.77182012796401978</v>
       </c>
       <c r="F15" s="5">
-        <v>0.67708826065063477</v>
+        <v>0.66656386852264404</v>
       </c>
       <c r="G15" s="5">
-        <v>0.70609349012374878</v>
+        <v>0.69170665740966797</v>
       </c>
       <c r="H15" s="5">
-        <v>0.8987610936164856</v>
+        <v>0.92041671276092529</v>
       </c>
       <c r="I15" s="5">
-        <v>0.87753051519393921</v>
+        <v>0.79917210340499878</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -23398,28 +23398,28 @@
         <v>19</v>
       </c>
       <c r="B16" s="5">
-        <v>0.77463221549987793</v>
+        <v>0.7727501392364502</v>
       </c>
       <c r="C16" s="5">
-        <v>0.81602561473846436</v>
+        <v>0.86433053016662598</v>
       </c>
       <c r="D16" s="5">
-        <v>0.60604548454284668</v>
+        <v>0.3809455931186676</v>
       </c>
       <c r="E16" s="5">
-        <v>0.74309629201889038</v>
+        <v>0.72960138320922852</v>
       </c>
       <c r="F16" s="5">
-        <v>0.73464846611022949</v>
+        <v>0.71127885580062866</v>
       </c>
       <c r="G16" s="5">
-        <v>0.71534210443496704</v>
+        <v>0.69753539562225342</v>
       </c>
       <c r="H16" s="5">
-        <v>0.87151587009429932</v>
+        <v>0.89962506294250488</v>
       </c>
       <c r="I16" s="5">
-        <v>0.85385334491729736</v>
+        <v>0.78109025955200195</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -23427,28 +23427,28 @@
         <v>9</v>
       </c>
       <c r="B17" s="5">
-        <v>0.63024359941482544</v>
+        <v>0.63318479061126709</v>
       </c>
       <c r="C17" s="5">
-        <v>0.45395770668983459</v>
+        <v>0.45615717768669128</v>
       </c>
       <c r="D17" s="5">
-        <v>0.73694181442260742</v>
+        <v>0.2299167662858963</v>
       </c>
       <c r="E17" s="5">
-        <v>0.83298677206039429</v>
+        <v>0.7789728045463562</v>
       </c>
       <c r="F17" s="5">
-        <v>0.64595621824264526</v>
+        <v>0.62326693534851074</v>
       </c>
       <c r="G17" s="5">
-        <v>0.7567756175994873</v>
+        <v>0.71505570411682129</v>
       </c>
       <c r="H17" s="5">
-        <v>0.62864845991134644</v>
+        <v>0.63508403301239014</v>
       </c>
       <c r="I17" s="5">
-        <v>0.67561757564544678</v>
+        <v>0.62323623895645142</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -23456,28 +23456,28 @@
         <v>10</v>
       </c>
       <c r="B18" s="5">
-        <v>0.61260682344436646</v>
+        <v>0.61415320634841919</v>
       </c>
       <c r="C18" s="5">
-        <v>0.418031245470047</v>
+        <v>0.40698906779289251</v>
       </c>
       <c r="D18" s="5">
-        <v>0.75643134117126465</v>
+        <v>0.20799945294857031</v>
       </c>
       <c r="E18" s="5">
-        <v>0.81678575277328491</v>
+        <v>0.76239675283432007</v>
       </c>
       <c r="F18" s="5">
-        <v>0.64711487293243408</v>
+        <v>0.62845945358276367</v>
       </c>
       <c r="G18" s="5">
-        <v>0.76483362913131714</v>
+        <v>0.72458827495574951</v>
       </c>
       <c r="H18" s="5">
-        <v>0.59983497858047485</v>
+        <v>0.61305111646652222</v>
       </c>
       <c r="I18" s="5">
-        <v>0.65911448001861572</v>
+        <v>0.61479580402374268</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -23485,28 +23485,28 @@
         <v>11</v>
       </c>
       <c r="B19" s="5">
-        <v>0.60401684045791626</v>
+        <v>0.61018675565719604</v>
       </c>
       <c r="C19" s="5">
-        <v>0.47464123368263239</v>
+        <v>0.48773574829101563</v>
       </c>
       <c r="D19" s="5">
-        <v>0.74693691730499268</v>
+        <v>0.21869057416915891</v>
       </c>
       <c r="E19" s="5">
-        <v>0.90230387449264526</v>
+        <v>0.85415607690811157</v>
       </c>
       <c r="F19" s="5">
-        <v>0.64728718996047974</v>
+        <v>0.63126206398010254</v>
       </c>
       <c r="G19" s="5">
-        <v>0.74106693267822266</v>
+        <v>0.70725929737091064</v>
       </c>
       <c r="H19" s="5">
-        <v>0.60809075832366943</v>
+        <v>0.63458055257797241</v>
       </c>
       <c r="I19" s="5">
-        <v>0.63713216781616211</v>
+        <v>0.60375344753265381</v>
       </c>
     </row>
   </sheetData>
